--- a/biology/Zoologie/Funiculina_quadrangularis/Funiculina_quadrangularis.xlsx
+++ b/biology/Zoologie/Funiculina_quadrangularis/Funiculina_quadrangularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Funiculina quadrangularis est une espèce de cnidaires, une pennatule de la famille des Funiculinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit le long de la côte ouest de la Grande-Bretagne et des îles avoisinantes, dans le golfe de Gascogne[1] et en Méditerranée[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit le long de la côte ouest de la Grande-Bretagne et des îles avoisinantes, dans le golfe de Gascogne et en Méditerranée,.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Menaces et mesures de gestion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce est vulnérable en Méditerranée[4].
-Les fonds de vase molle à Funiculina quadrangularis sont des milieux riches pour les ressources halieutiques (merlus, grondins, langoustes...).Le chalutage de fond est la première menace qui pèse sur cet habitat[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette espèce est vulnérable en Méditerranée.
+Les fonds de vase molle à Funiculina quadrangularis sont des milieux riches pour les ressources halieutiques (merlus, grondins, langoustes...).Le chalutage de fond est la première menace qui pèse sur cet habitat.
 Les fonds à pennatules sont identifiés dans le cadre de plusieurs démarches internationales : 
-Funiculina quadrangularis est avec Pennatula phosphorea et Virgularia mirabilis une des espèces déterminante de l'habitat OSPAR "colonies de pennatules et mégafaune fouisseuse»[5].
-Ils figurent également sur la liste de référence des types d'habitats marins pour identifier les sites d’Intérêt pour la conservation de la convention de Barcelone[6] et sont mentionnés à ce titre dans le plan d'action pour les habitats obscur[7] défini dans le cadre Plan d’Action pour la Méditerranée du Programme des Nations Unies pour l’environnement.
-La commission générale des pêches pour la Méditerranée considère également les champs de pennatulaires comme un Habitat Marin Essentiel (EMH) important pour la productivité des pêches[8].</t>
+Funiculina quadrangularis est avec Pennatula phosphorea et Virgularia mirabilis une des espèces déterminante de l'habitat OSPAR "colonies de pennatules et mégafaune fouisseuse».
+Ils figurent également sur la liste de référence des types d'habitats marins pour identifier les sites d’Intérêt pour la conservation de la convention de Barcelone et sont mentionnés à ce titre dans le plan d'action pour les habitats obscur défini dans le cadre Plan d’Action pour la Méditerranée du Programme des Nations Unies pour l’environnement.
+La commission générale des pêches pour la Méditerranée considère également les champs de pennatulaires comme un Habitat Marin Essentiel (EMH) important pour la productivité des pêches.</t>
         </is>
       </c>
     </row>
